--- a/Hasil Testing Botak.xlsx
+++ b/Hasil Testing Botak.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="46">
   <si>
     <t>Gerakan</t>
   </si>
@@ -73,13 +73,97 @@
   </si>
   <si>
     <t>lengkung</t>
+  </si>
+  <si>
+    <t>Borak</t>
+  </si>
+  <si>
+    <t>Gerakan Yahya</t>
+  </si>
+  <si>
+    <t>sama</t>
+  </si>
+  <si>
+    <t>Gerakan Afif</t>
+  </si>
+  <si>
+    <t>Gerakan Statis</t>
+  </si>
+  <si>
+    <t>gang</t>
+  </si>
+  <si>
+    <t>Target Kelas</t>
+  </si>
+  <si>
+    <t>Hasil Uji Coba</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +171,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -104,12 +200,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,22 +584,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="31" width="2.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -422,10 +623,50 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(G2:G19)</f>
+        <v>91.111111111111114</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(I2,I21,I40)</f>
+        <v>91.481481481481481</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AG2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -442,16 +683,84 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -459,13 +768,47 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AG4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -476,16 +819,50 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="G5">
+        <v>80</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AG5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -502,10 +879,46 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AG6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -522,10 +935,44 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6">
+        <v>4</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AG7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -542,10 +989,46 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6">
+        <v>5</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AG8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -562,30 +1045,102 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6">
+        <v>5</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6">
+        <v>1</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AG9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6">
+        <v>5</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AG10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -599,13 +1154,47 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6">
+        <v>5</v>
+      </c>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AG11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -622,10 +1211,44 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6">
+        <v>3</v>
+      </c>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AG12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -639,13 +1262,47 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6">
+        <v>4</v>
+      </c>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AG13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -662,10 +1319,44 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AG14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -682,10 +1373,44 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AG15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -702,10 +1427,44 @@
       <c r="F16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AG16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -722,10 +1481,48 @@
       <c r="F17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AG17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -742,8 +1539,2959 @@
       <c r="F18" t="s">
         <v>15</v>
       </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AG18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AG19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="6"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(G21:G38)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>80</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AG24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6">
+        <v>5</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AG26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6">
+        <v>4</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AG27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AG28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6">
+        <v>3</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AG29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6">
+        <v>5</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AG30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6">
+        <v>5</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6">
+        <v>2</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AG31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>80</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6">
+        <v>5</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AG32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6">
+        <v>5</v>
+      </c>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AG33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6">
+        <v>3</v>
+      </c>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AG34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6">
+        <v>5</v>
+      </c>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AG35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AG36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AG37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AG38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6">
+        <v>2</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AG39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE(G40:G57)</f>
+        <v>90</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6">
+        <v>5</v>
+      </c>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AG40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>60</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AG41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="6"/>
+      <c r="AG42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>80</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AG45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6">
+        <v>5</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6">
+        <v>2</v>
+      </c>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AG47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>80</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6">
+        <v>3</v>
+      </c>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AG48" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>40</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6">
+        <v>1</v>
+      </c>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AG49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6">
+        <v>4</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AG50" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6">
+        <v>5</v>
+      </c>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AG51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6">
+        <v>1</v>
+      </c>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6">
+        <v>5</v>
+      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6">
+        <v>1</v>
+      </c>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AG52" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6">
+        <v>5</v>
+      </c>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AG53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6">
+        <v>5</v>
+      </c>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AG54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6">
+        <v>1</v>
+      </c>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6">
+        <v>4</v>
+      </c>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AG55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6">
+        <v>2</v>
+      </c>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AG56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AG57" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6">
+        <v>1</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AG58" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AG59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K60" s="3"/>
+      <c r="L60" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AG60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K61" s="3"/>
+      <c r="L61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6">
+        <v>5</v>
+      </c>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AG61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K62" s="3"/>
+      <c r="L62" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AG62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K63" s="3"/>
+      <c r="L63" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE63" s="6"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K64" s="4"/>
+      <c r="L64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K66" s="8"/>
+      <c r="L66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+    </row>
+    <row r="67" spans="11:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V67" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE67" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K68" s="11"/>
+      <c r="L68" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14">
+        <v>2</v>
+      </c>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K69" s="11"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+    </row>
+    <row r="70" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K70" s="11"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+    </row>
+    <row r="71" spans="11:31" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K71" s="11"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+    </row>
+    <row r="72" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K72" s="13"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+    </row>
+    <row r="73" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K73" s="13"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+    </row>
+    <row r="74" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K74" s="13"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+    </row>
+    <row r="75" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K75" s="13"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+    </row>
+    <row r="76" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K76" s="13"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+    </row>
+    <row r="77" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K77" s="13"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+    </row>
+    <row r="78" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K78" s="13"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="10"/>
+    </row>
+    <row r="79" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K79" s="13"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+    </row>
+    <row r="80" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K80" s="13"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+    </row>
+    <row r="81" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K81" s="13"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+    </row>
+    <row r="82" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K82" s="13"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="10"/>
+    </row>
+    <row r="83" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K83" s="13"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="10"/>
+      <c r="AB83" s="10"/>
+      <c r="AC83" s="10"/>
+      <c r="AD83" s="10"/>
+      <c r="AE83" s="10"/>
+    </row>
+    <row r="84" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K84" s="13"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="10"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="10"/>
+    </row>
+    <row r="85" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K85" s="13"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85" s="10"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="10"/>
+    </row>
+    <row r="86" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K86" s="13"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="AC68:AC71"/>
+    <mergeCell ref="AD68:AD71"/>
+    <mergeCell ref="AE68:AE71"/>
+    <mergeCell ref="W68:W71"/>
+    <mergeCell ref="X68:X71"/>
+    <mergeCell ref="Y68:Y71"/>
+    <mergeCell ref="Z68:Z71"/>
+    <mergeCell ref="AA68:AA71"/>
+    <mergeCell ref="AB68:AB71"/>
+    <mergeCell ref="Q68:Q71"/>
+    <mergeCell ref="R68:R71"/>
+    <mergeCell ref="S68:S71"/>
+    <mergeCell ref="T68:T71"/>
+    <mergeCell ref="U68:U71"/>
+    <mergeCell ref="V68:V71"/>
+    <mergeCell ref="L66:AE66"/>
+    <mergeCell ref="K67:K71"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="M68:M71"/>
+    <mergeCell ref="N68:N71"/>
+    <mergeCell ref="O68:O71"/>
+    <mergeCell ref="P68:P71"/>
+    <mergeCell ref="L45:AE45"/>
+    <mergeCell ref="K46:K64"/>
+    <mergeCell ref="L2:AE2"/>
+    <mergeCell ref="K3:K21"/>
+    <mergeCell ref="L24:AE24"/>
+    <mergeCell ref="K25:K43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hasil Testing Botak.xlsx
+++ b/Hasil Testing Botak.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="69">
   <si>
     <t>Gerakan</t>
   </si>
@@ -224,12 +225,15 @@
   <si>
     <t>tiga</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,10 +242,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -371,22 +390,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -395,28 +414,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,26 +781,26 @@
   <sheetData>
     <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K2" s="3"/>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="17"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="15"/>
       <c r="AF2" t="s">
         <v>26</v>
       </c>
@@ -841,7 +889,7 @@
       <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="11" t="s">
@@ -873,7 +921,7 @@
       <c r="AG4" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AI4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="AJ4" s="11" t="s">
@@ -907,7 +955,7 @@
         <f>AVERAGE(G5:G22)</f>
         <v>82.222222222222229</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="11" t="s">
         <v>46</v>
       </c>
@@ -937,7 +985,7 @@
       <c r="AG5" t="s">
         <v>4</v>
       </c>
-      <c r="AI5" s="13"/>
+      <c r="AI5" s="17"/>
       <c r="AJ5" s="11" t="s">
         <v>46</v>
       </c>
@@ -965,7 +1013,7 @@
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="11" t="s">
         <v>47</v>
       </c>
@@ -999,7 +1047,7 @@
       <c r="AG6" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="13"/>
+      <c r="AI6" s="17"/>
       <c r="AJ6" s="11" t="s">
         <v>47</v>
       </c>
@@ -1027,7 +1075,7 @@
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="11" t="s">
         <v>48</v>
       </c>
@@ -1057,7 +1105,7 @@
       <c r="AG7" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="13"/>
+      <c r="AI7" s="17"/>
       <c r="AJ7" s="11" t="s">
         <v>48</v>
       </c>
@@ -1085,11 +1133,11 @@
       <c r="G8">
         <v>80</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="12">
         <f>AVERAGE(I5,I26,I47)</f>
         <v>82.962962962962976</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="11" t="s">
         <v>49</v>
       </c>
@@ -1121,7 +1169,7 @@
       <c r="AG8" t="s">
         <v>5</v>
       </c>
-      <c r="AI8" s="13"/>
+      <c r="AI8" s="17"/>
       <c r="AJ8" s="11" t="s">
         <v>49</v>
       </c>
@@ -1149,7 +1197,7 @@
       <c r="G9">
         <v>80</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="11" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +1229,7 @@
       <c r="AG9" t="s">
         <v>6</v>
       </c>
-      <c r="AI9" s="13"/>
+      <c r="AI9" s="17"/>
       <c r="AJ9" s="11" t="s">
         <v>50</v>
       </c>
@@ -1209,7 +1257,7 @@
       <c r="G10">
         <v>80</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="11" t="s">
         <v>51</v>
       </c>
@@ -1245,7 +1293,7 @@
       <c r="AG10" t="s">
         <v>7</v>
       </c>
-      <c r="AI10" s="13"/>
+      <c r="AI10" s="17"/>
       <c r="AJ10" s="11" t="s">
         <v>51</v>
       </c>
@@ -1275,7 +1323,7 @@
       <c r="G11">
         <v>100</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="11" t="s">
         <v>52</v>
       </c>
@@ -1305,7 +1353,7 @@
       <c r="AG11" t="s">
         <v>8</v>
       </c>
-      <c r="AI11" s="13"/>
+      <c r="AI11" s="17"/>
       <c r="AJ11" s="11" t="s">
         <v>52</v>
       </c>
@@ -1333,7 +1381,7 @@
       <c r="G12">
         <v>100</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="11" t="s">
         <v>53</v>
       </c>
@@ -1363,7 +1411,7 @@
       <c r="AG12" t="s">
         <v>11</v>
       </c>
-      <c r="AI12" s="13"/>
+      <c r="AI12" s="17"/>
       <c r="AJ12" s="11" t="s">
         <v>53</v>
       </c>
@@ -1391,7 +1439,7 @@
       <c r="G13">
         <v>60</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="11" t="s">
         <v>54</v>
       </c>
@@ -1421,7 +1469,7 @@
       <c r="AG13" t="s">
         <v>16</v>
       </c>
-      <c r="AI13" s="13"/>
+      <c r="AI13" s="17"/>
       <c r="AJ13" s="11" t="s">
         <v>54</v>
       </c>
@@ -1449,7 +1497,7 @@
       <c r="G14">
         <v>60</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="11" t="s">
         <v>55</v>
       </c>
@@ -1479,7 +1527,7 @@
       <c r="AG14" t="s">
         <v>17</v>
       </c>
-      <c r="AI14" s="13"/>
+      <c r="AI14" s="17"/>
       <c r="AJ14" s="11" t="s">
         <v>55</v>
       </c>
@@ -1507,7 +1555,7 @@
       <c r="G15">
         <v>100</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="11" t="s">
         <v>56</v>
       </c>
@@ -1539,7 +1587,7 @@
       <c r="AG15" t="s">
         <v>14</v>
       </c>
-      <c r="AI15" s="13"/>
+      <c r="AI15" s="17"/>
       <c r="AJ15" s="11" t="s">
         <v>56</v>
       </c>
@@ -1567,7 +1615,7 @@
       <c r="G16">
         <v>60</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="11" t="s">
         <v>57</v>
       </c>
@@ -1599,7 +1647,7 @@
       <c r="AG16" t="s">
         <v>13</v>
       </c>
-      <c r="AI16" s="13"/>
+      <c r="AI16" s="17"/>
       <c r="AJ16" s="11" t="s">
         <v>57</v>
       </c>
@@ -1627,7 +1675,7 @@
       <c r="G17">
         <v>80</v>
       </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="11" t="s">
         <v>58</v>
       </c>
@@ -1661,7 +1709,7 @@
       <c r="AG17" t="s">
         <v>12</v>
       </c>
-      <c r="AI17" s="13"/>
+      <c r="AI17" s="17"/>
       <c r="AJ17" s="11" t="s">
         <v>58</v>
       </c>
@@ -1689,7 +1737,7 @@
       <c r="G18">
         <v>80</v>
       </c>
-      <c r="K18" s="13"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="11" t="s">
         <v>59</v>
       </c>
@@ -1719,7 +1767,7 @@
       <c r="AG18" t="s">
         <v>15</v>
       </c>
-      <c r="AI18" s="13"/>
+      <c r="AI18" s="17"/>
       <c r="AJ18" s="11" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1795,7 @@
       <c r="G19">
         <v>100</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="11" t="s">
         <v>60</v>
       </c>
@@ -1779,7 +1827,7 @@
       <c r="AG19" t="s">
         <v>20</v>
       </c>
-      <c r="AI19" s="13"/>
+      <c r="AI19" s="17"/>
       <c r="AJ19" s="11" t="s">
         <v>60</v>
       </c>
@@ -1807,7 +1855,7 @@
       <c r="G20">
         <v>100</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="11" t="s">
         <v>61</v>
       </c>
@@ -1833,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="AD20" s="11"/>
-      <c r="AI20" s="13"/>
+      <c r="AI20" s="17"/>
       <c r="AJ20" s="11" t="s">
         <v>61</v>
       </c>
@@ -1861,7 +1909,7 @@
       <c r="G21">
         <v>80</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="4" t="s">
         <v>62</v>
       </c>
@@ -1885,7 +1933,7 @@
       <c r="AD21" s="11">
         <v>5</v>
       </c>
-      <c r="AI21" s="14"/>
+      <c r="AI21" s="18"/>
       <c r="AJ21" s="4" t="s">
         <v>62</v>
       </c>
@@ -1960,26 +2008,26 @@
     </row>
     <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K24" s="3"/>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="17"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="15"/>
       <c r="AF24" t="s">
         <v>44</v>
       </c>
@@ -2079,7 +2127,7 @@
         <f>AVERAGE(G26:G43)</f>
         <v>86.666666666666671</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="11" t="s">
@@ -2136,7 +2184,7 @@
       <c r="G27">
         <v>80</v>
       </c>
-      <c r="K27" s="13"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="11" t="s">
         <v>46</v>
       </c>
@@ -2189,7 +2237,7 @@
       <c r="G28">
         <v>80</v>
       </c>
-      <c r="K28" s="13"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="11" t="s">
         <v>47</v>
       </c>
@@ -2246,7 +2294,7 @@
       <c r="G29">
         <v>60</v>
       </c>
-      <c r="K29" s="13"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="11" t="s">
         <v>48</v>
       </c>
@@ -2299,7 +2347,7 @@
       <c r="G30">
         <v>80</v>
       </c>
-      <c r="K30" s="13"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="11" t="s">
         <v>49</v>
       </c>
@@ -2354,7 +2402,7 @@
       <c r="G31">
         <v>80</v>
       </c>
-      <c r="K31" s="13"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="11" t="s">
         <v>50</v>
       </c>
@@ -2409,7 +2457,7 @@
       <c r="G32">
         <v>100</v>
       </c>
-      <c r="K32" s="13"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="11" t="s">
         <v>51</v>
       </c>
@@ -2464,7 +2512,7 @@
       <c r="G33">
         <v>100</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="11" t="s">
         <v>52</v>
       </c>
@@ -2517,7 +2565,7 @@
       <c r="G34">
         <v>60</v>
       </c>
-      <c r="K34" s="13"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="11" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2620,7 @@
       <c r="G35">
         <v>60</v>
       </c>
-      <c r="K35" s="13"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="11" t="s">
         <v>54</v>
       </c>
@@ -2625,7 +2673,7 @@
       <c r="G36">
         <v>100</v>
       </c>
-      <c r="K36" s="13"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="11" t="s">
         <v>55</v>
       </c>
@@ -2678,7 +2726,7 @@
       <c r="G37">
         <v>80</v>
       </c>
-      <c r="K37" s="13"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="11" t="s">
         <v>56</v>
       </c>
@@ -2733,7 +2781,7 @@
       <c r="G38">
         <v>80</v>
       </c>
-      <c r="K38" s="13"/>
+      <c r="K38" s="17"/>
       <c r="L38" s="11" t="s">
         <v>57</v>
       </c>
@@ -2786,7 +2834,7 @@
       <c r="G39">
         <v>100</v>
       </c>
-      <c r="K39" s="13"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="11" t="s">
         <v>58</v>
       </c>
@@ -2843,7 +2891,7 @@
       <c r="G40">
         <v>100</v>
       </c>
-      <c r="K40" s="13"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="11" t="s">
         <v>59</v>
       </c>
@@ -2896,7 +2944,7 @@
       <c r="G41">
         <v>100</v>
       </c>
-      <c r="K41" s="13"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="11" t="s">
         <v>60</v>
       </c>
@@ -2949,7 +2997,7 @@
       <c r="G42">
         <v>100</v>
       </c>
-      <c r="K42" s="13"/>
+      <c r="K42" s="17"/>
       <c r="L42" s="11" t="s">
         <v>61</v>
       </c>
@@ -3002,7 +3050,7 @@
       <c r="G43">
         <v>100</v>
       </c>
-      <c r="K43" s="14"/>
+      <c r="K43" s="18"/>
       <c r="L43" s="4" t="s">
         <v>62</v>
       </c>
@@ -3051,26 +3099,26 @@
     </row>
     <row r="45" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K45" s="3"/>
-      <c r="M45" s="15" t="s">
+      <c r="M45" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="17"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="15"/>
       <c r="AE45" s="6"/>
       <c r="AF45" t="s">
         <v>26</v>
@@ -3174,7 +3222,7 @@
         <f>AVERAGE(G47:G64)</f>
         <v>80</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L47" s="11" t="s">
@@ -3231,7 +3279,7 @@
       <c r="G48">
         <v>60</v>
       </c>
-      <c r="K48" s="13"/>
+      <c r="K48" s="17"/>
       <c r="L48" s="11" t="s">
         <v>46</v>
       </c>
@@ -3284,7 +3332,7 @@
       <c r="G49">
         <v>100</v>
       </c>
-      <c r="K49" s="13"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="11" t="s">
         <v>47</v>
       </c>
@@ -3341,7 +3389,7 @@
       <c r="G50">
         <v>80</v>
       </c>
-      <c r="K50" s="13"/>
+      <c r="K50" s="17"/>
       <c r="L50" s="11" t="s">
         <v>48</v>
       </c>
@@ -3396,7 +3444,7 @@
       <c r="G51">
         <v>80</v>
       </c>
-      <c r="K51" s="13"/>
+      <c r="K51" s="17"/>
       <c r="L51" s="11" t="s">
         <v>49</v>
       </c>
@@ -3453,7 +3501,7 @@
       <c r="G52">
         <v>60</v>
       </c>
-      <c r="K52" s="13"/>
+      <c r="K52" s="17"/>
       <c r="L52" s="11" t="s">
         <v>50</v>
       </c>
@@ -3510,7 +3558,7 @@
       <c r="G53">
         <v>100</v>
       </c>
-      <c r="K53" s="13"/>
+      <c r="K53" s="17"/>
       <c r="L53" s="11" t="s">
         <v>51</v>
       </c>
@@ -3565,7 +3613,7 @@
       <c r="G54">
         <v>100</v>
       </c>
-      <c r="K54" s="13"/>
+      <c r="K54" s="17"/>
       <c r="L54" s="11" t="s">
         <v>52</v>
       </c>
@@ -3618,7 +3666,7 @@
       <c r="G55">
         <v>80</v>
       </c>
-      <c r="K55" s="13"/>
+      <c r="K55" s="17"/>
       <c r="L55" s="11" t="s">
         <v>53</v>
       </c>
@@ -3675,7 +3723,7 @@
       <c r="G56">
         <v>40</v>
       </c>
-      <c r="K56" s="13"/>
+      <c r="K56" s="17"/>
       <c r="L56" s="11" t="s">
         <v>54</v>
       </c>
@@ -3728,7 +3776,7 @@
       <c r="G57">
         <v>100</v>
       </c>
-      <c r="K57" s="13"/>
+      <c r="K57" s="17"/>
       <c r="L57" s="11" t="s">
         <v>55</v>
       </c>
@@ -3781,7 +3829,7 @@
       <c r="G58">
         <v>40</v>
       </c>
-      <c r="K58" s="13"/>
+      <c r="K58" s="17"/>
       <c r="L58" s="11" t="s">
         <v>56</v>
       </c>
@@ -3836,7 +3884,7 @@
       <c r="G59">
         <v>60</v>
       </c>
-      <c r="K59" s="13"/>
+      <c r="K59" s="17"/>
       <c r="L59" s="11" t="s">
         <v>57</v>
       </c>
@@ -3891,7 +3939,7 @@
       <c r="G60">
         <v>80</v>
       </c>
-      <c r="K60" s="13"/>
+      <c r="K60" s="17"/>
       <c r="L60" s="11" t="s">
         <v>58</v>
       </c>
@@ -3946,7 +3994,7 @@
       <c r="G61">
         <v>100</v>
       </c>
-      <c r="K61" s="13"/>
+      <c r="K61" s="17"/>
       <c r="L61" s="11" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +4047,7 @@
       <c r="G62">
         <v>100</v>
       </c>
-      <c r="K62" s="13"/>
+      <c r="K62" s="17"/>
       <c r="L62" s="11" t="s">
         <v>60</v>
       </c>
@@ -4052,7 +4100,7 @@
       <c r="G63">
         <v>80</v>
       </c>
-      <c r="K63" s="13"/>
+      <c r="K63" s="17"/>
       <c r="L63" s="11" t="s">
         <v>61</v>
       </c>
@@ -4099,7 +4147,7 @@
       <c r="G64">
         <v>100</v>
       </c>
-      <c r="K64" s="14"/>
+      <c r="K64" s="18"/>
       <c r="L64" s="4" t="s">
         <v>62</v>
       </c>
@@ -4128,27 +4176,27 @@
     </row>
     <row r="66" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K66" s="3"/>
-      <c r="M66" s="15" t="s">
+      <c r="M66" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
-      <c r="AD66" s="16"/>
-      <c r="AE66" s="17"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="15"/>
     </row>
     <row r="67" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -4239,7 +4287,7 @@
         <f>AVERAGE(G68:G86)</f>
         <v>84.21052631578948</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K68" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L68" s="11" t="s">
@@ -4291,7 +4339,7 @@
       <c r="G69">
         <v>60</v>
       </c>
-      <c r="K69" s="13"/>
+      <c r="K69" s="17"/>
       <c r="L69" s="11" t="s">
         <v>46</v>
       </c>
@@ -4339,7 +4387,7 @@
       <c r="G70">
         <v>80</v>
       </c>
-      <c r="K70" s="13"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="11" t="s">
         <v>47</v>
       </c>
@@ -4391,7 +4439,7 @@
       <c r="G71">
         <v>60</v>
       </c>
-      <c r="K71" s="13"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="11" t="s">
         <v>48</v>
       </c>
@@ -4433,7 +4481,7 @@
       <c r="G72">
         <v>80</v>
       </c>
-      <c r="K72" s="13"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="11" t="s">
         <v>49</v>
       </c>
@@ -4475,7 +4523,7 @@
       <c r="G73">
         <v>80</v>
       </c>
-      <c r="K73" s="13"/>
+      <c r="K73" s="17"/>
       <c r="L73" s="11" t="s">
         <v>50</v>
       </c>
@@ -4515,7 +4563,7 @@
       <c r="G74">
         <v>100</v>
       </c>
-      <c r="K74" s="13"/>
+      <c r="K74" s="17"/>
       <c r="L74" s="11" t="s">
         <v>51</v>
       </c>
@@ -4559,7 +4607,7 @@
       <c r="G75">
         <v>100</v>
       </c>
-      <c r="K75" s="13"/>
+      <c r="K75" s="17"/>
       <c r="L75" s="11" t="s">
         <v>52</v>
       </c>
@@ -4602,7 +4650,7 @@
       <c r="G76">
         <v>80</v>
       </c>
-      <c r="K76" s="13"/>
+      <c r="K76" s="17"/>
       <c r="L76" s="11" t="s">
         <v>53</v>
       </c>
@@ -4648,7 +4696,7 @@
       <c r="G77">
         <v>60</v>
       </c>
-      <c r="K77" s="13"/>
+      <c r="K77" s="17"/>
       <c r="L77" s="11" t="s">
         <v>54</v>
       </c>
@@ -4690,7 +4738,7 @@
       <c r="G78">
         <v>100</v>
       </c>
-      <c r="K78" s="13"/>
+      <c r="K78" s="17"/>
       <c r="L78" s="11" t="s">
         <v>55</v>
       </c>
@@ -4734,7 +4782,7 @@
       <c r="G79">
         <v>60</v>
       </c>
-      <c r="K79" s="13"/>
+      <c r="K79" s="17"/>
       <c r="L79" s="11" t="s">
         <v>56</v>
       </c>
@@ -4778,7 +4826,7 @@
       <c r="G80">
         <v>80</v>
       </c>
-      <c r="K80" s="13"/>
+      <c r="K80" s="17"/>
       <c r="L80" s="11" t="s">
         <v>57</v>
       </c>
@@ -4818,7 +4866,7 @@
       <c r="G81">
         <v>100</v>
       </c>
-      <c r="K81" s="13"/>
+      <c r="K81" s="17"/>
       <c r="L81" s="11" t="s">
         <v>58</v>
       </c>
@@ -4862,7 +4910,7 @@
       <c r="G82">
         <v>100</v>
       </c>
-      <c r="K82" s="13"/>
+      <c r="K82" s="17"/>
       <c r="L82" s="11" t="s">
         <v>59</v>
       </c>
@@ -4902,7 +4950,7 @@
       <c r="G83">
         <v>100</v>
       </c>
-      <c r="K83" s="13"/>
+      <c r="K83" s="17"/>
       <c r="L83" s="11" t="s">
         <v>60</v>
       </c>
@@ -4942,7 +4990,7 @@
       <c r="G84">
         <v>100</v>
       </c>
-      <c r="K84" s="13"/>
+      <c r="K84" s="17"/>
       <c r="L84" s="11" t="s">
         <v>61</v>
       </c>
@@ -4982,7 +5030,7 @@
       <c r="G85">
         <v>100</v>
       </c>
-      <c r="K85" s="13"/>
+      <c r="K85" s="17"/>
       <c r="L85" s="4" t="s">
         <v>62</v>
       </c>
@@ -5024,7 +5072,7 @@
       <c r="G86">
         <v>60</v>
       </c>
-      <c r="K86" s="14"/>
+      <c r="K86" s="18"/>
       <c r="L86" s="4" t="s">
         <v>63</v>
       </c>
@@ -5071,7 +5119,7 @@
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
     </row>
-    <row r="88" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
@@ -5181,4 +5229,4575 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AK92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.21875" customWidth="1"/>
+    <col min="19" max="20" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.77734375" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
+    <col min="24" max="24" width="11" customWidth="1"/>
+    <col min="25" max="25" width="9.21875" customWidth="1"/>
+    <col min="26" max="26" width="8.5546875" customWidth="1"/>
+    <col min="27" max="27" width="6.88671875" customWidth="1"/>
+    <col min="28" max="28" width="7.109375" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" customWidth="1"/>
+    <col min="30" max="30" width="5.77734375" customWidth="1"/>
+    <col min="31" max="31" width="5.5546875" customWidth="1"/>
+    <col min="35" max="35" width="3.77734375" customWidth="1"/>
+    <col min="36" max="36" width="11" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K2" s="3"/>
+      <c r="M2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="15"/>
+      <c r="AF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3"/>
+      <c r="AK2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L3" s="5"/>
+      <c r="M3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="19">
+        <v>5</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK4" s="11"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(G5:G22)</f>
+        <v>82.222222222222229</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19">
+        <v>3</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19">
+        <v>1</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="11"/>
+    </row>
+    <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19">
+        <v>3</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19">
+        <v>2</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="11"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK7" s="11"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="I8" s="12">
+        <f>AVERAGE(I5,I26,I47)</f>
+        <v>82.962962962962976</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19">
+        <v>4</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" s="11"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
+        <v>4</v>
+      </c>
+      <c r="S9" s="19">
+        <v>1</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK9" s="11"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19">
+        <v>5</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19">
+        <v>5</v>
+      </c>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK11" s="11"/>
+    </row>
+    <row r="12" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
+      <c r="S12" s="19">
+        <v>1</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19">
+        <v>3</v>
+      </c>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK12" s="11"/>
+    </row>
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19">
+        <v>2</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19">
+        <v>3</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK13" s="11"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19">
+        <v>5</v>
+      </c>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK14" s="11"/>
+    </row>
+    <row r="15" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK15" s="11"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK16" s="11"/>
+    </row>
+    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>80</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="11"/>
+    </row>
+    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK18" s="11"/>
+    </row>
+    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK19" s="11"/>
+    </row>
+    <row r="20" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="20"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK20" s="11"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="20"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="20"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="20"/>
+    </row>
+    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K24" s="3"/>
+      <c r="M24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X25" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE25" s="20"/>
+      <c r="AF25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G26:G43)</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="19">
+        <v>5</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>80</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19">
+        <v>4</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19">
+        <v>1</v>
+      </c>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>80</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19">
+        <v>4</v>
+      </c>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19">
+        <v>1</v>
+      </c>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19">
+        <v>1</v>
+      </c>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19">
+        <v>4</v>
+      </c>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>80</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19">
+        <v>4</v>
+      </c>
+      <c r="S31" s="19">
+        <v>1</v>
+      </c>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19">
+        <v>5</v>
+      </c>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19">
+        <v>5</v>
+      </c>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>60</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19">
+        <v>2</v>
+      </c>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19">
+        <v>3</v>
+      </c>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>60</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="19">
+        <v>1</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19">
+        <v>1</v>
+      </c>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19">
+        <v>3</v>
+      </c>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19">
+        <v>5</v>
+      </c>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>80</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="19">
+        <v>4</v>
+      </c>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="20"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="20"/>
+    </row>
+    <row r="45" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K45" s="3"/>
+      <c r="M45" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S46" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T46" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V46" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X46" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z46" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA46" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB46" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC46" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE46" s="20"/>
+      <c r="AF46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>80</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(G47:G64)</f>
+        <v>80</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" s="19">
+        <v>4</v>
+      </c>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19">
+        <v>1</v>
+      </c>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>60</v>
+      </c>
+      <c r="K48" s="17"/>
+      <c r="L48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19">
+        <v>3</v>
+      </c>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19">
+        <v>1</v>
+      </c>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19">
+        <v>1</v>
+      </c>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="K49" s="17"/>
+      <c r="L49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19">
+        <v>5</v>
+      </c>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>80</v>
+      </c>
+      <c r="K50" s="17"/>
+      <c r="L50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>80</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19">
+        <v>1</v>
+      </c>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19">
+        <v>4</v>
+      </c>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>60</v>
+      </c>
+      <c r="K52" s="17"/>
+      <c r="L52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19">
+        <v>3</v>
+      </c>
+      <c r="S52" s="19">
+        <v>1</v>
+      </c>
+      <c r="T52" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="U52" s="19">
+        <v>1</v>
+      </c>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19">
+        <v>5</v>
+      </c>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19">
+        <v>5</v>
+      </c>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>80</v>
+      </c>
+      <c r="K55" s="17"/>
+      <c r="L55" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19">
+        <v>1</v>
+      </c>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19">
+        <v>4</v>
+      </c>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>40</v>
+      </c>
+      <c r="K56" s="17"/>
+      <c r="L56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" s="19">
+        <v>2</v>
+      </c>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19">
+        <v>1</v>
+      </c>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19">
+        <v>2</v>
+      </c>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="K57" s="17"/>
+      <c r="L57" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19">
+        <v>5</v>
+      </c>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <v>40</v>
+      </c>
+      <c r="K58" s="17"/>
+      <c r="L58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="20"/>
+      <c r="AF58" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <v>60</v>
+      </c>
+      <c r="K59" s="17"/>
+      <c r="L59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19">
+        <v>2</v>
+      </c>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="20"/>
+      <c r="AF59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>80</v>
+      </c>
+      <c r="K60" s="17"/>
+      <c r="L60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="K61" s="17"/>
+      <c r="L61" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19">
+        <v>5</v>
+      </c>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="K62" s="17"/>
+      <c r="L62" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="19">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63">
+        <v>80</v>
+      </c>
+      <c r="K63" s="17"/>
+      <c r="L63" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19">
+        <v>4</v>
+      </c>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="20"/>
+    </row>
+    <row r="64" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="K64" s="18"/>
+      <c r="L64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="19"/>
+      <c r="AB64" s="19"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="19">
+        <v>5</v>
+      </c>
+      <c r="AE64" s="20"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+    </row>
+    <row r="66" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K66" s="3"/>
+      <c r="M66" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="23"/>
+      <c r="AE66" s="24"/>
+    </row>
+    <row r="67" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="5"/>
+      <c r="M67" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N67" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O67" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P67" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q67" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R67" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S67" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T67" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U67" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V67" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W67" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X67" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y67" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z67" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA67" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB67" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC67" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD67" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE67" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <f>AVERAGE(G68:G86)</f>
+        <v>84.21052631578948</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" s="19">
+        <v>5</v>
+      </c>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="27"/>
+    </row>
+    <row r="69" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69">
+        <v>60</v>
+      </c>
+      <c r="K69" s="17"/>
+      <c r="L69" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19">
+        <v>3</v>
+      </c>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19">
+        <v>1</v>
+      </c>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>80</v>
+      </c>
+      <c r="K70" s="17"/>
+      <c r="L70" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19">
+        <v>4</v>
+      </c>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19">
+        <v>1</v>
+      </c>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19"/>
+      <c r="AE70" s="27"/>
+    </row>
+    <row r="71" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>60</v>
+      </c>
+      <c r="K71" s="17"/>
+      <c r="L71" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="27"/>
+    </row>
+    <row r="72" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72">
+        <v>80</v>
+      </c>
+      <c r="K72" s="17"/>
+      <c r="L72" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19">
+        <v>1</v>
+      </c>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19">
+        <v>4</v>
+      </c>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="27"/>
+    </row>
+    <row r="73" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>80</v>
+      </c>
+      <c r="K73" s="17"/>
+      <c r="L73" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19">
+        <v>4</v>
+      </c>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19">
+        <v>1</v>
+      </c>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="19"/>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="27"/>
+    </row>
+    <row r="74" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="K74" s="17"/>
+      <c r="L74" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19">
+        <v>5</v>
+      </c>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="27"/>
+    </row>
+    <row r="75" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="K75" s="17"/>
+      <c r="L75" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19">
+        <v>5</v>
+      </c>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="29"/>
+    </row>
+    <row r="76" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>80</v>
+      </c>
+      <c r="K76" s="17"/>
+      <c r="L76" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19">
+        <v>1</v>
+      </c>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19">
+        <v>4</v>
+      </c>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="19"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="29"/>
+    </row>
+    <row r="77" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77">
+        <v>60</v>
+      </c>
+      <c r="K77" s="17"/>
+      <c r="L77" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M77" s="19">
+        <v>1</v>
+      </c>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19">
+        <v>1</v>
+      </c>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19">
+        <v>3</v>
+      </c>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="29"/>
+    </row>
+    <row r="78" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="K78" s="17"/>
+      <c r="L78" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19"/>
+      <c r="W78" s="19">
+        <v>5</v>
+      </c>
+      <c r="X78" s="19"/>
+      <c r="Y78" s="19"/>
+      <c r="Z78" s="19"/>
+      <c r="AA78" s="19"/>
+      <c r="AB78" s="19"/>
+      <c r="AC78" s="19"/>
+      <c r="AD78" s="19"/>
+      <c r="AE78" s="29"/>
+    </row>
+    <row r="79" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <v>60</v>
+      </c>
+      <c r="K79" s="17"/>
+      <c r="L79" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y79" s="19"/>
+      <c r="Z79" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA79" s="19"/>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="19"/>
+      <c r="AE79" s="29"/>
+    </row>
+    <row r="80" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80">
+        <v>80</v>
+      </c>
+      <c r="K80" s="17"/>
+      <c r="L80" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="19"/>
+      <c r="X80" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="19">
+        <v>4</v>
+      </c>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="19"/>
+      <c r="AE80" s="29"/>
+    </row>
+    <row r="81" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="K81" s="17"/>
+      <c r="L81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="19"/>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="19"/>
+      <c r="AE81" s="29"/>
+    </row>
+    <row r="82" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="K82" s="17"/>
+      <c r="L82" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="19">
+        <v>5</v>
+      </c>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="29"/>
+    </row>
+    <row r="83" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="K83" s="17"/>
+      <c r="L83" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="19"/>
+      <c r="AB83" s="19">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19"/>
+      <c r="AE83" s="29"/>
+    </row>
+    <row r="84" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="K84" s="17"/>
+      <c r="L84" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="19">
+        <v>5</v>
+      </c>
+      <c r="AD84" s="19"/>
+      <c r="AE84" s="29"/>
+    </row>
+    <row r="85" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="K85" s="17"/>
+      <c r="L85" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="19">
+        <v>5</v>
+      </c>
+      <c r="AE85" s="29"/>
+    </row>
+    <row r="86" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86">
+        <v>60</v>
+      </c>
+      <c r="K86" s="18"/>
+      <c r="L86" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M86" s="27"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19">
+        <v>2</v>
+      </c>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+    </row>
+    <row r="88" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+    </row>
+    <row r="89" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+    </row>
+    <row r="90" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+    </row>
+    <row r="91" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+    </row>
+    <row r="92" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K47:K64"/>
+    <mergeCell ref="M66:AE66"/>
+    <mergeCell ref="K68:K86"/>
+    <mergeCell ref="M2:AD2"/>
+    <mergeCell ref="K4:K21"/>
+    <mergeCell ref="AI4:AI21"/>
+    <mergeCell ref="M24:AD24"/>
+    <mergeCell ref="K26:K43"/>
+    <mergeCell ref="M45:AD45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>